--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\endo-learn\BGSaWC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/endo-learn/bgsawc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16823F50-7EDA-504D-A1D5-44F45488F209}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="11560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
     <sheet name="IEA 2017 Wind" sheetId="2" r:id="rId3"/>
     <sheet name="BGSaWC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -167,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
@@ -291,7 +301,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,12 +339,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Table Header 2" xfId="2"/>
+    <cellStyle name="Table Header 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -381,7 +392,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1124,24 +1141,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="18">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1149,106 +1169,106 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W7" sqref="W7:AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2019</v>
       </c>
@@ -1259,7 +1279,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1273,7 +1293,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1287,7 +1307,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2019</v>
       </c>
@@ -1385,7 +1405,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1394,7 +1414,7 @@
         <v>582000</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:N6" si="0">TREND($B$2:$C$2,$B$1:$C$1,C5)*1000</f>
+        <f t="shared" ref="C6:M6" si="0">TREND($B$2:$C$2,$B$1:$C$1,C5)*1000</f>
         <v>714272.72727276431</v>
       </c>
       <c r="D6">
@@ -1518,7 +1538,7 @@
         <v>4474000</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>624000</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:N7" si="2">TREND($B$3:$C$3,$B$1:$C$1,C5)*1000</f>
+        <f t="shared" ref="C7:M7" si="2">TREND($B$3:$C$3,$B$1:$C$1,C5)*1000</f>
         <v>699545.45454544132</v>
       </c>
       <c r="D7">
@@ -1658,26 +1678,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A7:AN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12:AN12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +1819,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1965,7 @@
         <v>2072.8400198583167</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -2091,7 +2111,7 @@
         <v>135.57703324231764</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2244,12 +2264,12 @@
         <v>6.5406414360711082E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2361,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -2433,7 +2453,7 @@
         <v>1977.5444351764106</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
@@ -2542,7 +2562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2552,12 +2572,12 @@
       <selection activeCell="B6" sqref="B6:AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -3062,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -3195,7 +3215,7 @@
         <v>2274800.7874460295</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -3328,7 +3348,7 @@
         <v>4474000</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
@@ -3429,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
@@ -3530,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
@@ -3631,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
@@ -3732,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>24</v>
       </c>
@@ -3833,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
@@ -3934,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
@@ -4067,7 +4087,7 @@
         <v>159199.21255397078</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
@@ -4168,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
@@ -4269,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>

--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/endo-learn/bgsawc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/endo-learn/bgsawc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16823F50-7EDA-504D-A1D5-44F45488F209}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BFAC4-3959-AB46-872D-6B9C1F38054C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="11560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
